--- a/TEST/7F_48_WELL_COMPLETE_M9/tube_stock/0_tube_stock.xlsx
+++ b/TEST/7F_48_WELL_COMPLETE_M9/tube_stock/0_tube_stock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,82 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Vol_NH4NO3</t>
+          <t>Vol_NH4Cl</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Water_NH4NO3</t>
+          <t>Water_NH4Cl</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Vol_MgSO4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Water_MgSO4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Vol_KH2PO4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Water_KH2PO4</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Vol_Na2HPO4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Water_Na2HPO4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_FeSO4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Water_FeSO4</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Vol_MnSO4</t>
+          <t>Vol_CaCl2</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Water_MnSO4</t>
+          <t>Water_CaCl2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Vol_Na2EDTA</t>
+          <t>Vol_NaCl</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Water_Na2EDTA</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_MgSO4</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Water_MgSO4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_CaCl2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Water_CaCl2</t>
+          <t>Water_NaCl</t>
         </is>
       </c>
     </row>
@@ -573,22 +553,10 @@
         <v>703.1</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>2850.1</v>
       </c>
       <c r="O2" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>175</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4825</v>
+        <v>2149.9</v>
       </c>
     </row>
     <row r="3">
@@ -598,58 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2847.3</v>
+        <v>3222.1</v>
       </c>
       <c r="C3" t="n">
-        <v>2152.7</v>
+        <v>1777.9</v>
       </c>
       <c r="D3" t="n">
-        <v>309.5</v>
+        <v>3323.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4690.5</v>
+        <v>1676.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2569.3</v>
+        <v>4649.7</v>
       </c>
       <c r="G3" t="n">
-        <v>2430.7</v>
+        <v>350.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4146.4</v>
+        <v>2938.5</v>
       </c>
       <c r="I3" t="n">
-        <v>853.6</v>
+        <v>2061.5</v>
       </c>
       <c r="J3" t="n">
-        <v>813.6</v>
+        <v>1096</v>
       </c>
       <c r="K3" t="n">
-        <v>4186.4</v>
+        <v>3904</v>
       </c>
       <c r="L3" t="n">
-        <v>511.6</v>
+        <v>714.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4488.4</v>
+        <v>4285.8</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>1198.3</v>
       </c>
       <c r="O3" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R3" t="n">
-        <v>175</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4825</v>
+        <v>3801.7</v>
       </c>
     </row>
     <row r="4">
@@ -659,58 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2051.8</v>
+        <v>4876.3</v>
       </c>
       <c r="C4" t="n">
-        <v>2948.2</v>
+        <v>123.7</v>
       </c>
       <c r="D4" t="n">
-        <v>3976.6</v>
+        <v>1703.2</v>
       </c>
       <c r="E4" t="n">
-        <v>1023.4</v>
+        <v>3296.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2004.3</v>
+        <v>1490.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2995.7</v>
+        <v>3509.7</v>
       </c>
       <c r="H4" t="n">
-        <v>233.8</v>
+        <v>2324.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4766.2</v>
+        <v>2675.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4027.8</v>
+        <v>1624.6</v>
       </c>
       <c r="K4" t="n">
-        <v>972.2</v>
+        <v>3375.4</v>
       </c>
       <c r="L4" t="n">
-        <v>3251.6</v>
+        <v>1319.7</v>
       </c>
       <c r="M4" t="n">
-        <v>1748.4</v>
+        <v>3680.3</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>4008.4</v>
       </c>
       <c r="O4" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R4" t="n">
-        <v>175</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4825</v>
+        <v>991.6</v>
       </c>
     </row>
     <row r="5">
@@ -720,58 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3621.9</v>
+        <v>161.1</v>
       </c>
       <c r="C5" t="n">
-        <v>1378.1</v>
+        <v>4838.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1946.7</v>
+        <v>4369</v>
       </c>
       <c r="E5" t="n">
-        <v>3053.3</v>
+        <v>631</v>
       </c>
       <c r="F5" t="n">
-        <v>1141.4</v>
+        <v>2625.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3858.6</v>
+        <v>2374.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3377.7</v>
+        <v>3913.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1622.3</v>
+        <v>1086.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4158.4</v>
+        <v>3047.8</v>
       </c>
       <c r="K5" t="n">
-        <v>841.6</v>
+        <v>1952.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1679</v>
+        <v>3652.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3321</v>
+        <v>1347.6</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>1905.3</v>
       </c>
       <c r="O5" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R5" t="n">
-        <v>175</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4825</v>
+        <v>3094.7</v>
       </c>
     </row>
     <row r="6">
@@ -781,58 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2732.5</v>
+        <v>956.8</v>
       </c>
       <c r="C6" t="n">
-        <v>2267.5</v>
+        <v>4043.2</v>
       </c>
       <c r="D6" t="n">
-        <v>1252</v>
+        <v>2145.7</v>
       </c>
       <c r="E6" t="n">
-        <v>3748</v>
+        <v>2854.3</v>
       </c>
       <c r="F6" t="n">
-        <v>4108.1</v>
+        <v>3813.3</v>
       </c>
       <c r="G6" t="n">
-        <v>891.9</v>
+        <v>1186.7</v>
       </c>
       <c r="H6" t="n">
-        <v>641</v>
+        <v>4642.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4359</v>
+        <v>357.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1593.7</v>
+        <v>3398.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3406.3</v>
+        <v>1601.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4038.1</v>
+        <v>4686.7</v>
       </c>
       <c r="M6" t="n">
-        <v>961.9</v>
+        <v>313.3</v>
       </c>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>4657.4</v>
       </c>
       <c r="O6" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R6" t="n">
-        <v>175</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4825</v>
+        <v>342.6</v>
       </c>
     </row>
     <row r="7">
@@ -842,58 +762,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2030.8</v>
+        <v>3777.6</v>
       </c>
       <c r="C7" t="n">
-        <v>2969.2</v>
+        <v>1222.4</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5</v>
+        <v>4479.9</v>
       </c>
       <c r="E7" t="n">
-        <v>4978.5</v>
+        <v>520.1</v>
       </c>
       <c r="F7" t="n">
-        <v>3985.7</v>
+        <v>177.9</v>
       </c>
       <c r="G7" t="n">
-        <v>1014.3</v>
+        <v>4822.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3226.3</v>
+        <v>1618</v>
       </c>
       <c r="I7" t="n">
-        <v>1773.7</v>
+        <v>3382</v>
       </c>
       <c r="J7" t="n">
-        <v>2232.5</v>
+        <v>1897.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2767.5</v>
+        <v>3102.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1392.2</v>
+        <v>456.9</v>
       </c>
       <c r="M7" t="n">
-        <v>3607.8</v>
+        <v>4543.1</v>
       </c>
       <c r="N7" t="n">
-        <v>100</v>
+        <v>1304</v>
       </c>
       <c r="O7" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R7" t="n">
-        <v>175</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4825</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="8">
@@ -903,58 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1827.3</v>
+        <v>3051.3</v>
       </c>
       <c r="C8" t="n">
-        <v>3172.7</v>
+        <v>1948.7</v>
       </c>
       <c r="D8" t="n">
-        <v>1856</v>
+        <v>473.6</v>
       </c>
       <c r="E8" t="n">
-        <v>3144</v>
+        <v>4526.4</v>
       </c>
       <c r="F8" t="n">
-        <v>4684.8</v>
+        <v>3345.2</v>
       </c>
       <c r="G8" t="n">
-        <v>315.2</v>
+        <v>1654.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4893.1</v>
+        <v>3508.4</v>
       </c>
       <c r="I8" t="n">
-        <v>106.9</v>
+        <v>1491.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3936.6</v>
+        <v>197</v>
       </c>
       <c r="K8" t="n">
-        <v>1063.4</v>
+        <v>4803</v>
       </c>
       <c r="L8" t="n">
-        <v>313.9</v>
+        <v>2195.2</v>
       </c>
       <c r="M8" t="n">
-        <v>4686.1</v>
+        <v>2804.8</v>
       </c>
       <c r="N8" t="n">
-        <v>100</v>
+        <v>3489</v>
       </c>
       <c r="O8" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R8" t="n">
-        <v>175</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4825</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="9">
@@ -964,58 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>500</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D9" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4610.4</v>
+      </c>
+      <c r="F9" t="n">
         <v>5000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>1041.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3958.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2000</v>
-      </c>
       <c r="H9" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>4230</v>
       </c>
       <c r="K9" t="n">
-        <v>4900</v>
+        <v>770</v>
       </c>
       <c r="L9" t="n">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="M9" t="n">
-        <v>4975</v>
+        <v>2500</v>
       </c>
       <c r="N9" t="n">
-        <v>100</v>
+        <v>855</v>
       </c>
       <c r="O9" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R9" t="n">
-        <v>175</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4825</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="10">
@@ -1025,58 +909,46 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>500</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D10" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4610.4</v>
+      </c>
+      <c r="F10" t="n">
         <v>5000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>1041.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3958.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2000</v>
-      </c>
       <c r="H10" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>4230</v>
       </c>
       <c r="K10" t="n">
-        <v>4900</v>
+        <v>770</v>
       </c>
       <c r="L10" t="n">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>4975</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="n">
-        <v>100</v>
+        <v>855</v>
       </c>
       <c r="O10" t="n">
-        <v>4900</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2000</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R10" t="n">
-        <v>175</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4825</v>
+        <v>4145</v>
       </c>
     </row>
   </sheetData>
